--- a/export.xlsx
+++ b/export.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -76,17 +76,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.88988764044944"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="48.18988764044945"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="36.08988764044944"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="51.489887640449446"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.08988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -110,56 +100,6 @@
           <t>labels</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>assignee</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="G1" s="0" t="inlineStr">
-        <is>
-          <t>milestone</t>
-        </is>
-      </c>
-      <c r="H1" s="0" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="I1" s="0" t="inlineStr">
-        <is>
-          <t>closed_at</t>
-        </is>
-      </c>
-      <c r="J1" s="0" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-      <c r="K1" s="0" t="inlineStr">
-        <is>
-          <t>comments_url</t>
-        </is>
-      </c>
-      <c r="L1" s="0" t="inlineStr">
-        <is>
-          <t>events_url</t>
-        </is>
-      </c>
-      <c r="M1" s="0" t="inlineStr">
-        <is>
-          <t>html_url</t>
-        </is>
-      </c>
-      <c r="N1" s="0" t="inlineStr">
-        <is>
-          <t>labels_url</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
@@ -177,41 +117,7 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>bug</t>
-        </is>
-      </c>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0" t="d">
-        <v>2014-01-30T17:34:20Z</v>
-      </c>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="inlineStr">
-        <is>
-          <t>https://api.github.com/repos/pythonicrubyist/test_issues/issues/1/comments</t>
-        </is>
-      </c>
-      <c r="L2" s="0" t="inlineStr">
-        <is>
-          <t>https://api.github.com/repos/pythonicrubyist/test_issues/issues/1/events</t>
-        </is>
-      </c>
-      <c r="M2" s="0" t="inlineStr">
-        <is>
-          <t>https://github.com/pythonicrubyist/test_issues/issues/1</t>
-        </is>
-      </c>
-      <c r="N2" s="0" t="inlineStr">
-        <is>
-          <t>https://api.github.com/repos/pythonicrubyist/test_issues/issues/1/labels{/name}</t>
+          <t>bug, question</t>
         </is>
       </c>
     </row>
